--- a/MRI_Experiment/experimental_data/Batch_IV.xlsx
+++ b/MRI_Experiment/experimental_data/Batch_IV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sand-1-W" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="71">
   <si>
     <t>batch number</t>
   </si>
@@ -231,15 +231,19 @@
   </si>
   <si>
     <t xml:space="preserve">water content </t>
+  </si>
+  <si>
+    <t>gravel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -277,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -286,6 +290,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +595,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,8 +760,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.5181057546086887</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>8.0260000000000673</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -827,13 +837,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.2652191167462768</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25367878597905896</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.40263066736475644</v>
+        <f>G17*$B$13</f>
+        <v>0.38511122481695537</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -853,13 +863,13 @@
         <f>$D$17-D18</f>
         <v>11.644000000000005</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G39" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.24847657856368477</v>
+      <c r="G18" s="8">
+        <f>(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.23693624779646691</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H39" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.37721372380300777</v>
+        <f t="shared" ref="H18:H39" si="0">G18*$B$13</f>
+        <v>0.35969428125520664</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -876,16 +886,16 @@
         <v>1080.3009999999999</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F39" si="2">$D$17-D19</f>
+        <f t="shared" ref="F19:F39" si="1">$D$17-D19</f>
         <v>15.22400000000016</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24332901014272273</v>
+      <c r="G19" s="8">
+        <f t="shared" ref="G18:G39" si="2">(D19-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.23178867937550487</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="1"/>
-        <v>0.36939917056090332</v>
+        <f t="shared" si="0"/>
+        <v>0.35187972801310224</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -902,16 +912,16 @@
         <v>1075.9670000000001</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19.557999999999993</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23709728904315633</v>
+      <c r="G20" s="8">
+        <f t="shared" si="2"/>
+        <v>0.2255569582759385</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
-        <v>0.35993875889853522</v>
+        <f t="shared" si="0"/>
+        <v>0.34241931635073414</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -928,16 +938,16 @@
         <v>1070.6849999999999</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24.840000000000146</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22950246881982642</v>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.21796213805260856</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="1"/>
-        <v>0.34840901861227963</v>
+        <f t="shared" si="0"/>
+        <v>0.3308895760644785</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -954,16 +964,16 @@
         <v>1065.47</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30.055000000000064</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22200398577085562</v>
+      <c r="G22" s="8">
+        <f t="shared" si="2"/>
+        <v>0.21046365500363776</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="1"/>
-        <v>0.33702552834480137</v>
+        <f t="shared" si="0"/>
+        <v>0.31950608579700024</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -980,16 +990,16 @@
         <v>1057.6880000000001</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37.836999999999989</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21081449486249682</v>
+      <c r="G23" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19927416409527896</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
-        <v>0.32003869780568023</v>
+        <f t="shared" si="0"/>
+        <v>0.30251925525787909</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1003,16 +1013,16 @@
         <v>43</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37.836999999999989</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21081449486249682</v>
+      <c r="G24" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19927416409527896</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="1"/>
-        <v>0.32003869780568023</v>
+        <f t="shared" si="0"/>
+        <v>0.30251925525787909</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1020,16 +1030,16 @@
         <v>1092.25</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.2750000000000909</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26051009814888842</v>
+      <c r="G25" s="8">
+        <f t="shared" si="2"/>
+        <v>0.24896976738167056</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="1"/>
-        <v>0.3954818791335018</v>
+        <f t="shared" si="0"/>
+        <v>0.37796243658570067</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1046,16 +1056,16 @@
         <v>1069.8240000000001</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25.701000000000022</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22826446423590255</v>
+      <c r="G26" s="8">
+        <f t="shared" si="2"/>
+        <v>0.21672413346868469</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
-        <v>0.34652959672919287</v>
+        <f t="shared" si="0"/>
+        <v>0.32901015418139173</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1075,16 +1085,16 @@
         <v>43</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36.315000000000055</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21300293037554249</v>
+      <c r="G27" s="8">
+        <f t="shared" si="2"/>
+        <v>0.20146259960832466</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="1"/>
-        <v>0.32336097435162492</v>
+        <f t="shared" si="0"/>
+        <v>0.30584153180382384</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1092,16 +1102,16 @@
         <v>1091.4110000000001</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.1140000000000327</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2593037266669927</v>
+      <c r="G28" s="8">
+        <f t="shared" si="2"/>
+        <v>0.24776339589977484</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="1"/>
-        <v>0.39365047964464006</v>
+        <f t="shared" si="0"/>
+        <v>0.37613103709683898</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,16 +1128,16 @@
         <v>1079.4559999999999</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.069000000000187</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2421140114511828</v>
+      <c r="G29" s="8">
+        <f t="shared" si="2"/>
+        <v>0.23057368068396497</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="1"/>
-        <v>0.36755467405543457</v>
+        <f t="shared" si="0"/>
+        <v>0.35003523150763349</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1147,16 +1157,16 @@
         <v>43</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27.32100000000014</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22593511763200344</v>
+      <c r="G30" s="8">
+        <f t="shared" si="2"/>
+        <v>0.21439478686478558</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="1"/>
-        <v>0.34299340224533542</v>
+        <f t="shared" si="0"/>
+        <v>0.32547395969753429</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1164,16 +1174,16 @@
         <v>1092.1559999999999</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.3690000000001419</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26037493853113125</v>
+      <c r="G31" s="8">
+        <f t="shared" si="2"/>
+        <v>0.24883460776391339</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="1"/>
-        <v>0.39527669253999392</v>
+        <f t="shared" si="0"/>
+        <v>0.37775724999219279</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1190,16 +1200,16 @@
         <v>1076.2840000000001</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19.240999999999985</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23755309328601806</v>
+      <c r="G32" s="8">
+        <f t="shared" si="2"/>
+        <v>0.2260127625188002</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="1"/>
-        <v>0.36063071794259866</v>
+        <f t="shared" si="0"/>
+        <v>0.34311127539479752</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1213,16 +1223,16 @@
         <v>43</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22.4050000000002</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23300367806704478</v>
+      <c r="G33" s="8">
+        <f t="shared" si="2"/>
+        <v>0.22146334729982695</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="1"/>
-        <v>0.353724224518571</v>
+        <f t="shared" si="0"/>
+        <v>0.33620478197076986</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1230,16 +1240,16 @@
         <v>1092.81</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.7150000000001455</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26131530438233486</v>
+      <c r="G34" s="8">
+        <f t="shared" si="2"/>
+        <v>0.24977497361511702</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" si="1"/>
-        <v>0.39670426735014364</v>
+        <f t="shared" si="0"/>
+        <v>0.37918482480234256</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1259,16 +1269,16 @@
         <v>43</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67.72400000000016</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.16784092575710946</v>
+      <c r="G35" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1563005949898916</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25480027525071752</v>
+        <f t="shared" si="0"/>
+        <v>0.23728083270291642</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1276,16 +1286,16 @@
         <v>1090.6020000000001</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.9230000000000018</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25814049123331728</v>
+      <c r="G36" s="8">
+        <f t="shared" si="2"/>
+        <v>0.24660016046609942</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="1"/>
-        <v>0.39188456523881271</v>
+        <f t="shared" si="0"/>
+        <v>0.37436512269101158</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1302,16 +1312,16 @@
         <v>1051.2650000000001</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44.259999999999991</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20157906693851979</v>
+      <c r="G37" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19003873617130193</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="1"/>
-        <v>0.30601834152801694</v>
+        <f t="shared" si="0"/>
+        <v>0.2884988989802158</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1325,16 +1335,16 @@
         <v>28</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44.889000000000124</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20067464779416624</v>
+      <c r="G38" s="8">
+        <f t="shared" si="2"/>
+        <v>0.18913431702694838</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="1"/>
-        <v>0.30464533762039558</v>
+        <f t="shared" si="0"/>
+        <v>0.28712589507259445</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1348,16 +1358,16 @@
         <v>54</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43.439000000000078</v>
       </c>
-      <c r="G39" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20275955679148325</v>
+      <c r="G39" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19121922602426539</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="1"/>
-        <v>0.30781044996705798</v>
+        <f t="shared" si="0"/>
+        <v>0.29029100741925679</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1469,7 +1479,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,8 +1644,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4905742918162026</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>10.071999999999889</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1706,13 +1721,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.27174133894786429</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25691190977487899</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.40505065385939948</v>
+        <f>G17*$B$13</f>
+        <v>0.38294628797183838</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1732,13 +1747,13 @@
         <f>$D$17-D18</f>
         <v>9.7069999999998799</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G25" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.25744931462477372</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G25" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.24261988545178842</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H25" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.38374732982538884</v>
+        <f t="shared" ref="H18:H25" si="1">G18*$B$13</f>
+        <v>0.36164296393782774</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1758,13 +1773,13 @@
         <f t="shared" ref="F19:F25" si="2">$D$17-D19</f>
         <v>13.289999999999964</v>
       </c>
-      <c r="G19" s="5">
-        <f>(D19-$B$7)/($B$7-$B$5)</f>
-        <v>0.25217391304347825</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23734448387049295</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.37588395184930323</v>
+        <v>0.35377958596174214</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1782,13 +1797,13 @@
         <f t="shared" si="2"/>
         <v>13.922000000000025</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25124339286503028</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23641396369204498</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.37449694239329251</v>
+        <v>0.35239257650573136</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1806,13 +1821,13 @@
         <f t="shared" si="2"/>
         <v>11.869999999999891</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25426463876087702</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23943520958789172</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.37900033385489684</v>
+        <v>0.35689596796733575</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1832,13 +1847,13 @@
         <f t="shared" si="2"/>
         <v>15.293999999999869</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24922333956624815</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23439391039326285</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.37148590287802929</v>
+        <v>0.3493815369904682</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1858,13 +1873,13 @@
         <f t="shared" si="2"/>
         <v>20.919999999999845</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24093994316759684</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22611051399461154</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.35913888515727677</v>
+        <v>0.33703451926971567</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1882,13 +1897,13 @@
         <f t="shared" si="2"/>
         <v>23.272999999999911</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2374755223133439</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2226460931403586</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.35397490849589536</v>
+        <v>0.33187054260833432</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1906,13 +1921,13 @@
         <f t="shared" si="2"/>
         <v>23.832999999999856</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23665101076282055</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22182158158983525</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.35274591277537976</v>
+        <v>0.33064154688781872</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,7 +2033,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,8 +2198,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.5200262964042757</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>9.1630000000000109</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2255,13 +2275,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.2636794155441014</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25044974805446074</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.40079964544754443</v>
+        <f>G17*$B$13</f>
+        <v>0.38069020297060591</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2281,13 +2301,13 @@
         <f>$D$17-D18</f>
         <v>11.632000000000062</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G24" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.24688497134029252</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G24" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.23365530385065186</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H24" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.3752716486242606</v>
+        <f t="shared" ref="H18:H24" si="1">G18*$B$13</f>
+        <v>0.35516220614732202</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2307,13 +2327,13 @@
         <f t="shared" ref="F19:F24" si="2">$D$17-D19</f>
         <v>16.115999999999985</v>
       </c>
-      <c r="G19" s="5">
-        <f>(D19-$B$7)/($B$7-$B$5)</f>
-        <v>0.2404109094584255</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22718124196878484</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.36543090431927416</v>
+        <v>0.34532146184233559</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2331,13 +2351,13 @@
         <f t="shared" si="2"/>
         <v>16.885999999999967</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23929917269459017</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22606950520494951</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.36374103520356504</v>
+        <v>0.34363159272662652</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2355,13 +2375,13 @@
         <f t="shared" si="2"/>
         <v>17.087999999999965</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23900752227083077</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22577785478119011</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.36329771889009332</v>
+        <v>0.3431882764131548</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2381,13 +2401,13 @@
         <f t="shared" si="2"/>
         <v>19.34699999999998</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23574594649225405</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22251627900261342</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.35834003793894148</v>
+        <v>0.33823059546200296</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2410,13 +2430,13 @@
         <f t="shared" si="2"/>
         <v>26.130000000000109</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22595255627264976</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21272288878300913</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.34345382727419449</v>
+        <v>0.32334438479725602</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2434,13 +2454,13 @@
         <f t="shared" si="2"/>
         <v>26.738000000000056</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22507471737341361</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21184504988377298</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.34211948906334899</v>
+        <v>0.32201004658641047</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2546,7 +2566,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,8 +2731,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.5132341389605173</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>9.2919999999999163</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2783,13 +2808,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.26919106196083914</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25564168518550928</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.40734910486217762</v>
+        <f>G17*$B$13</f>
+        <v>0.38684572536410977</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2812,13 +2837,13 @@
         <f>$D$17-D18</f>
         <v>13.461000000000013</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G38" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.2495625470261946</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G38" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.23601317025086471</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H38" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.37764656596597718</v>
+        <f t="shared" ref="H18:H38" si="1">G18*$B$13</f>
+        <v>0.35714318646790921</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2838,13 +2863,13 @@
         <f t="shared" ref="F19:F38" si="2">$D$17-D19</f>
         <v>18.389999999999873</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24237519466657345</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22882581789124359</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.36677041900666002</v>
+        <v>0.34626703950859211</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2864,13 +2889,13 @@
         <f t="shared" si="2"/>
         <v>24.257000000000062</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23382007267552055</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22027069590019069</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.35382451634682688</v>
+        <v>0.33332113684875903</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2890,13 +2915,13 @@
         <f t="shared" si="2"/>
         <v>32.091999999999871</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22239525917630532</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20884588240097546</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.33653609852855748</v>
+        <v>0.31603271903048957</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2916,13 +2941,13 @@
         <f t="shared" si="2"/>
         <v>39.224999999999909</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21199408563579419</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19844470886046434</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.32079668764180319</v>
+        <v>0.30029330814373528</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2942,13 +2967,13 @@
         <f t="shared" si="2"/>
         <v>49.59699999999998</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19686987815476498</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18332050137943512</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.29791022055678773</v>
+        <v>0.27740684105871982</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2965,13 +2990,13 @@
         <f t="shared" si="2"/>
         <v>49.59699999999998</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19686987815476498</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18332050137943512</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.29791022055678773</v>
+        <v>0.27740684105871982</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2982,13 +3007,13 @@
         <f t="shared" si="2"/>
         <v>3.65300000000002</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26386434291646971</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25031496614113985</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.39928853175558671</v>
+        <v>0.3787851522575188</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3008,13 +3033,13 @@
         <f t="shared" si="2"/>
         <v>33.115999999999985</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22090208635904968</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20735270958371982</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.33427657844611836</v>
+        <v>0.31377319894805045</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3037,13 +3062,13 @@
         <f t="shared" si="2"/>
         <v>45.358999999999924</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20304963049805483</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18950025372272497</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.30726163277297519</v>
+        <v>0.28675825327490728</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3054,13 +3079,13 @@
         <f t="shared" si="2"/>
         <v>25.893000000000029</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23143449579170228</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21788511901637242</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.35021457996511801</v>
+        <v>0.32971120046705016</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3080,13 +3105,13 @@
         <f t="shared" si="2"/>
         <v>38.703999999999951</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21275379563363606</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19920441885830617</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.32194630674624708</v>
+        <v>0.30144292724817917</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3109,13 +3134,13 @@
         <f t="shared" si="2"/>
         <v>52.312999999999874</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19290947056524768</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1793600937899178</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.29191719658813181</v>
+        <v>0.2714138170900639</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3126,13 +3151,13 @@
         <f t="shared" si="2"/>
         <v>39.634999999999991</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21139623323826015</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19784685646293029</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.31989199698379528</v>
+        <v>0.29938861748572737</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3152,13 +3177,13 @@
         <f t="shared" si="2"/>
         <v>57.020999999999958</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1860443752296628</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17249499845433294</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.28152869995910618</v>
+        <v>0.26102532046103827</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3175,13 +3200,13 @@
         <f t="shared" si="2"/>
         <v>60.534999999999854</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18092034272982335</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16737096595449347</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.27377483905120592</v>
+        <v>0.25327145955313796</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3192,13 +3217,13 @@
         <f t="shared" si="2"/>
         <v>52.001999999999953</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19336296348142573</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17981358670609587</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.2926034375506692</v>
+        <v>0.27210005805260129</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3221,13 +3246,13 @@
         <f t="shared" si="2"/>
         <v>119.88</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>9.4384853628234899E-2</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>8.0835476852905028E-2</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.14282638271103648</v>
+        <v>0.12232300321296856</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3238,13 +3263,13 @@
         <f t="shared" si="2"/>
         <v>83.482999999999947</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.14745810658687525</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13390872981154539</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.22313864095373834</v>
+        <v>0.20263526145567043</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3261,13 +3286,13 @@
         <f t="shared" si="2"/>
         <v>85.120999999999981</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.14506961334989818</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13152023657456829</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.2195242914468683</v>
+        <v>0.19902091194880039</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3284,13 +3309,13 @@
         <f t="shared" si="2"/>
         <v>85.675999999999931</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" si="0"/>
-        <v>0.14426032534835842</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13071094857302853</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>0.21829964921468722</v>
+        <v>0.19779626971661929</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3393,7 +3418,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3558,8 +3583,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.3855456343220578</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>11.90199999999993</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3630,13 +3660,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.28611208348050865</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.26725990879615041</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.3964213481932069</v>
+        <f>G17*$B$13</f>
+        <v>0.37030079986181752</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3656,13 +3686,13 @@
         <f>$D$17-D18</f>
         <v>11.25</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G24" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.26829264429389871</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G24" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.2494404696095405</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H24" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.37173170202213213</v>
+        <f t="shared" ref="H18:H24" si="1">G18*$B$13</f>
+        <v>0.34561115369074275</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3682,13 +3712,13 @@
         <f t="shared" ref="F19:F24" si="2">$D$17-D19</f>
         <v>15.337999999999965</v>
       </c>
-      <c r="G19" s="5">
-        <f>(D19-$B$7)/($B$7-$B$5)</f>
-        <v>0.26181745608102219</v>
+      <c r="G19" s="8">
+        <f>(D19-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.24296528139666398</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.36276003326236744</v>
+        <v>0.33663948493097806</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3711,13 +3741,13 @@
         <f t="shared" si="2"/>
         <v>20.155999999999949</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25418598425870342</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23533380957434519</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
-        <v>0.35218628079550185</v>
+        <f>G20*$B$13</f>
+        <v>0.32606573246411247</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3735,13 +3765,13 @@
         <f t="shared" si="2"/>
         <v>18.060999999999922</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25750435982278769</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23865218513842948</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.35678404157135984</v>
+        <v>0.33066349323997046</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3761,13 +3791,13 @@
         <f t="shared" si="2"/>
         <v>23.699999999999932</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24857246492738383</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22972029024302562</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.34440849359280951</v>
+        <v>0.31828794526142018</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3790,13 +3820,13 @@
         <f t="shared" si="2"/>
         <v>29.934999999999945</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23869653574262711</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21984436105826891</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.33072494302599603</v>
+        <v>0.30460439469460671</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3814,13 +3844,13 @@
         <f t="shared" si="2"/>
         <v>30.156999999999925</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23834489880934473</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21949272412498649</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.33023773400822021</v>
+        <v>0.30411718567683083</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3926,7 +3956,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4091,8 +4121,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.3826885430704969</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>9.8709999999999809</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -4163,13 +4198,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.29556817817143233</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.27972946952921934</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.40867873365385887</v>
+        <f>G17*$B$13</f>
+        <v>0.38677873267723928</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4192,13 +4227,13 @@
         <f>$D$17-D18</f>
         <v>9.1420000000000528</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G31" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.28089920092423221</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G31" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.26506049228201922</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H31" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.38839610687559345</v>
+        <f t="shared" ref="H18:H31" si="1">G18*$B$13</f>
+        <v>0.36649610589897386</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4218,13 +4253,13 @@
         <f t="shared" ref="F19:F31" si="2">$D$17-D19</f>
         <v>12.523000000000025</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27547415038028311</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25963544173807013</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.38089495164289666</v>
+        <v>0.35899495066627707</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4244,13 +4279,13 @@
         <f t="shared" si="2"/>
         <v>16.351999999999975</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.269330252559289</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25349154391707601</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.37239985451601232</v>
+        <v>0.35049985353939273</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4270,13 +4305,13 @@
         <f t="shared" si="2"/>
         <v>21.125999999999976</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26167003626327795</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24583132762106497</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.3618081612060759</v>
+        <v>0.3399081602294563</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4296,13 +4331,13 @@
         <f t="shared" si="2"/>
         <v>26.22199999999998</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25349314848689081</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2376544398446778</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.3505020721596922</v>
+        <v>0.32860207118307261</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4322,13 +4357,13 @@
         <f t="shared" si="2"/>
         <v>34.819000000000074</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23969866178877441</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2238599531465614</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.3314285934446683</v>
+        <v>0.3095285924680487</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4345,13 +4380,13 @@
         <f t="shared" si="2"/>
         <v>34.819000000000074</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23969866178877441</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2238599531465614</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.3314285934446683</v>
+        <v>0.3095285924680487</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4362,13 +4397,13 @@
         <f t="shared" si="2"/>
         <v>0.93399999999996908</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.29406950996437869</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27823080132216571</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.40660654229410176</v>
+        <v>0.38470654131748222</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4388,13 +4423,13 @@
         <f t="shared" si="2"/>
         <v>26.33299999999997</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25331504123744436</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2374763325952314</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.35025580530644485</v>
+        <v>0.32835580432982525</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4417,13 +4452,13 @@
         <f t="shared" si="2"/>
         <v>37.129000000000019</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23599210551651109</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22015339687429811</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.32630358055276371</v>
+        <v>0.30440357957614417</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4434,13 +4469,13 @@
         <f t="shared" si="2"/>
         <v>1.0120000000000573</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.29394435351882159</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2781056448766086</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.40643348991073858</v>
+        <v>0.38453348893411898</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4460,13 +4495,13 @@
         <f t="shared" si="2"/>
         <v>11.214000000000055</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27757453226789897</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26173582362568598</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.38379912561497592</v>
+        <v>0.36189912463835627</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4489,13 +4524,13 @@
         <f t="shared" si="2"/>
         <v>21.211999999999989</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26153204325920232</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24569333461698933</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.36161735986031668</v>
+        <v>0.33971735888369708</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4512,13 +4547,13 @@
         <f t="shared" si="2"/>
         <v>21.509999999999991</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26105388145438219</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2452151728121692</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.36095621101105796</v>
+        <v>0.33905621003443837</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4639,7 +4674,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4804,8 +4839,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4019241969331451</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>15.194999999999936</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -4876,13 +4916,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.288600742647105</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.26481380597248599</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.40459636436985197</v>
+        <f>G17*$B$13</f>
+        <v>0.37124888227478714</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4902,13 +4942,13 @@
         <f>$D$17-D18</f>
         <v>9.3240000000000691</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G23" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.27400453352870091</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G23" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.2502175968540819</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H23" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.38413358562326505</v>
+        <f t="shared" ref="H18:H23" si="1">G18*$B$13</f>
+        <v>0.35078610352820022</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4928,13 +4968,13 @@
         <f t="shared" ref="F19:F23" si="2">$D$17-D19</f>
         <v>12.908000000000129</v>
       </c>
-      <c r="G19" s="5">
-        <f>(D19-$B$7)/($B$7-$B$5)</f>
-        <v>0.26839397867237735</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24460704199775835</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.37626801301196428</v>
+        <v>0.34292053091689945</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4954,13 +4994,13 @@
         <f t="shared" si="2"/>
         <v>14.792000000000144</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26544468030482338</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24165774363020434</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
-        <v>0.37213332026651491</v>
+        <f>G20*$B$13</f>
+        <v>0.33878583817145008</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4980,13 +5020,13 @@
         <f t="shared" si="2"/>
         <v>20.403999999999996</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25665940300189749</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23287246632727845</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.35981702743877553</v>
+        <v>0.3264695453437107</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5004,13 +5044,13 @@
         <f t="shared" si="2"/>
         <v>21.825000000000045</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25443490566628479</v>
+      <c r="G22" s="8">
+        <f>(D22-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.23064796899166576</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.3566984507979668</v>
+        <v>0.32335096870290198</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5028,13 +5068,13 @@
         <f t="shared" si="2"/>
         <v>22.269999999999982</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25373828264422466</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22995134596960559</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.35572183812719999</v>
+        <v>0.3223743560321351</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5146,7 +5186,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5311,8 +5351,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4052295203324563</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>9.9789999999998145</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -5383,13 +5428,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.28262627563237913</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.26695674430509364</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.39715478574023677</v>
+        <f>G17*$B$13</f>
+        <v>0.37513549774936095</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5412,13 +5457,13 @@
         <f>$D$17-D18</f>
         <v>6.7089999999998327</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G41" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.27209146396039219</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G41" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25642193263310675</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H41" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.38235095738761782</v>
+        <f t="shared" ref="H18:H41" si="1">G18*$B$13</f>
+        <v>0.36033166939674205</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5438,13 +5483,13 @@
         <f t="shared" ref="F19:F41" si="2">$D$17-D19</f>
         <v>10.222999999999956</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26657360314426992</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25090407181698443</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.37459709647971706</v>
+        <v>0.35257780848884118</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5464,13 +5509,13 @@
         <f t="shared" si="2"/>
         <v>14.488999999999919</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25987491383249517</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24420538250520968</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.36518390051127558</v>
+        <v>0.34316461252039981</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5490,13 +5535,13 @@
         <f t="shared" si="2"/>
         <v>19.883999999999901</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25140341152658208</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23573388019929661</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.35327949538944209</v>
+        <v>0.33126020739856632</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5516,13 +5561,13 @@
         <f t="shared" si="2"/>
         <v>25.547999999999888</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24250951179336769</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22683998046608222</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.34078152493345226</v>
+        <v>0.31876223694257649</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5542,13 +5587,13 @@
         <f t="shared" si="2"/>
         <v>33.244999999999891</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23042329247017712</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21475376114289166</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.32379761275129232</v>
+        <v>0.30177832476041655</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5565,13 +5610,13 @@
         <f t="shared" si="2"/>
         <v>34.702999999999861</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22813386700919083</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21246433568190537</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.32058044450891365</v>
+        <v>0.29856115651803788</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5582,13 +5627,13 @@
         <f t="shared" si="2"/>
         <v>18.064999999999941</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25425969747550808</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23859016614822257</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.35729323272338365</v>
+        <v>0.33527394473250782</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5608,13 +5653,13 @@
         <f t="shared" si="2"/>
         <v>40.252999999999929</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21941897585111517</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20374944452382968</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.30833402218710138</v>
+        <v>0.28631473419622561</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5637,13 +5682,13 @@
         <f t="shared" si="2"/>
         <v>49.9849999999999</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20413729643663028</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18846776510934479</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.28685975515361045</v>
+        <v>0.26484046716273463</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5654,13 +5699,13 @@
         <f t="shared" si="2"/>
         <v>35.148999999999887</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22743353521522652</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21176400388794103</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.31959631759800761</v>
+        <v>0.29757702960713178</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5680,13 +5725,13 @@
         <f t="shared" si="2"/>
         <v>44.90099999999984</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21212045078755942</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19645091946027393</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.29807791931290656</v>
+        <v>0.27605863132203073</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5709,13 +5754,13 @@
         <f t="shared" si="2"/>
         <v>54.761999999999944</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19663620903804876</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1809666777107633</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.2763190057065299</v>
+        <v>0.25429971771565413</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5726,13 +5771,13 @@
         <f t="shared" si="2"/>
         <v>45.667999999999893</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21091606853201988</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19524653720473439</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.29638548581365781</v>
+        <v>0.27436619782278199</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5752,13 +5797,13 @@
         <f t="shared" si="2"/>
         <v>58.638999999999896</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19054834723266886</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17487881590538337</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.26776416258190561</v>
+        <v>0.24574487459102981</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5775,13 +5820,13 @@
         <f t="shared" si="2"/>
         <v>61.577999999999861</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18593338054553665</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17026384921825116</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.26127907515779653</v>
+        <v>0.23925978716692076</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5792,13 +5837,13 @@
         <f t="shared" si="2"/>
         <v>53.297999999999888</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19893505600298989</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18326552467570439</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.27954941332439182</v>
+        <v>0.25753012533351599</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -5821,13 +5866,13 @@
         <f t="shared" si="2"/>
         <v>103.27299999999991</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.12046177931383194</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10479224798654645</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.16927644836357028</v>
+        <v>0.14725716037269448</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5838,13 +5883,13 @@
         <f t="shared" si="2"/>
         <v>78.411999999999921</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15949978095003312</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14383024962274762</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.2241338006775469</v>
+        <v>0.20211451268667111</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5864,13 +5909,13 @@
         <f t="shared" si="2"/>
         <v>117.7109999999999</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>9.7790500297562588E-2</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>8.2120968970277097E-2</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.13741809782621481</v>
+        <v>0.11539880983533901</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5890,13 +5935,13 @@
         <f t="shared" si="2"/>
         <v>136.94699999999989</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" si="0"/>
-        <v>6.758515861887042E-2</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>5.1915627291584943E-2</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>9.4972660027588265E-2</v>
+        <v>7.2953372036712483E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5913,13 +5958,13 @@
         <f t="shared" si="2"/>
         <v>137.65699999999993</v>
       </c>
-      <c r="G39" s="5">
-        <f t="shared" si="0"/>
-        <v>6.647028065090034E-2</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>5.0800749323614856E-2</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>9.3406000595428446E-2</v>
+        <v>7.1386712604552663E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -5933,13 +5978,13 @@
         <f t="shared" si="2"/>
         <v>133.49199999999985</v>
       </c>
-      <c r="G40" s="5">
-        <f t="shared" si="0"/>
-        <v>7.3010374646104922E-2</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>5.7340843318819432E-2</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>0.10259633374323895</v>
+        <v>8.0577045752363158E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -5956,13 +6001,13 @@
         <f t="shared" si="2"/>
         <v>133.97699999999986</v>
       </c>
-      <c r="G41" s="5">
-        <f t="shared" si="0"/>
-        <v>7.2248803076435233E-2</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>5.6579271749149743E-2</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0.10152615089169317</v>
+        <v>7.950686290081739E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
